--- a/medicine/Enfance/Roser_Capdevila/Roser_Capdevila.xlsx
+++ b/medicine/Enfance/Roser_Capdevila/Roser_Capdevila.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Roser Capdevila, de son nom complet Roser Capdevila i Valls, est une auteure espagnole d'albums de jeunesse, née à Barcelone le 23 janvier 1939. Elle est connue pour avoir créé en 1983 la série Les Trois Petites Sœurs.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosep Capdevila naît à Barcelone en 1939. Elle étudie les Beaux-Arts à l’École Massana de Barcelone. Elle commence à travailler la peinture à l’huile, l’impression des tissus, l’aquarelle et participe à beaucoup d’expositions.
 En 1980, elle commence à écrire et à illustrer des livres pour enfants.
@@ -547,7 +561,9 @@
           <t>La Reconnaissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Son travail est reconnu par différents institutions et organismes officiels qui lui ont décerné beaucoup de prix. 
 Les plus importants sont :
@@ -555,7 +571,7 @@
 Le prix National de l'Audiovisuel de la Generalitat de Catalunya, 1990
 Le prix Femme Entreprenante accordé par le FIDEM, 2002
 La Creu de Sant Jordi accordée par la Generalitat de Catalunya, 2004
-La Médaille d'or du mérite des beaux-arts par le Ministère de l'Éducation, de la Culture et des Sports, 2009[1]
+La Médaille d'or du mérite des beaux-arts par le Ministère de l'Éducation, de la Culture et des Sports, 2009
 La Médaille d’honneur accordé par le Parlament de Catalunya. 2010</t>
         </is>
       </c>
